--- a/라키비움_ggma Business Reference Model.xlsx
+++ b/라키비움_ggma Business Reference Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="645" windowWidth="24015" windowHeight="10770"/>
+    <workbookView xWindow="630" yWindow="645" windowWidth="24015" windowHeight="10770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 1차" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>부대행사</t>
   </si>
   <si>
-    <t>경기천년 홍보부스 운영 -2018 경기천년소풍('18년 하반기)-</t>
-  </si>
-  <si>
     <t>경기천년 오프라인 현장홍보 운영</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>경기천년 홍보물 배포</t>
-  </si>
-  <si>
-    <t>경기천년 홍보부스 운영 -2018 경기천년소풍('18 상반기)-</t>
   </si>
   <si>
     <t>경기천년 기념품 제작</t>
@@ -2467,6 +2461,14 @@
       <t xml:space="preserve">
  - 설치운영 / 퍼포먼스 / 의견수렴 / 결과분석 </t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 홍보부스 운영('18년 하반기)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 홍보부스 운영('18년 상반기)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5441,9 +5443,9 @@
   </sheetPr>
   <dimension ref="A1:V1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" outlineLevelCol="1"/>
@@ -5492,7 +5494,7 @@
     </row>
     <row r="2" spans="1:22" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" s="235" t="s">
         <v>3</v>
@@ -5501,16 +5503,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="273" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="235" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="236" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="237" t="s">
         <v>323</v>
-      </c>
-      <c r="E2" s="235" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="236" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="237" t="s">
-        <v>325</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -5537,13 +5539,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="274" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="55"/>
@@ -5570,16 +5572,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="287" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="275" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="51"/>
@@ -5604,10 +5606,10 @@
       <c r="C5" s="287"/>
       <c r="D5" s="276"/>
       <c r="E5" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" s="118" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="51"/>
@@ -5631,13 +5633,13 @@
       <c r="B6" s="43"/>
       <c r="C6" s="287"/>
       <c r="D6" s="276" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="51"/>
@@ -5661,13 +5663,13 @@
       <c r="B7" s="43"/>
       <c r="C7" s="287"/>
       <c r="D7" s="277" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E7" s="243" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F7" s="242" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="51"/>
@@ -5697,13 +5699,13 @@
         <v>45</v>
       </c>
       <c r="D8" s="278" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8" s="120" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="51"/>
@@ -5727,13 +5729,13 @@
       <c r="B9" s="241"/>
       <c r="C9" s="289"/>
       <c r="D9" s="240" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="51"/>
@@ -5757,13 +5759,13 @@
       <c r="B10" s="43"/>
       <c r="C10" s="287"/>
       <c r="D10" s="240" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F10" s="122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="51"/>
@@ -5788,7 +5790,7 @@
       <c r="C11" s="290"/>
       <c r="D11" s="279"/>
       <c r="E11" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F11" s="123"/>
       <c r="G11" s="20"/>
@@ -5816,16 +5818,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="287" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="280" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F12" s="118" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="51"/>
@@ -5849,16 +5851,16 @@
       <c r="B13" s="43"/>
       <c r="C13" s="287"/>
       <c r="D13" s="281" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F13" s="118" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -5882,13 +5884,13 @@
       <c r="C14" s="287"/>
       <c r="D14" s="280"/>
       <c r="E14" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -5912,10 +5914,10 @@
       <c r="C15" s="287"/>
       <c r="D15" s="280"/>
       <c r="E15" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F15" s="118" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="51"/>
@@ -5939,13 +5941,13 @@
       <c r="B16" s="58"/>
       <c r="C16" s="291"/>
       <c r="D16" s="282" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="51"/>
@@ -5969,19 +5971,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="51"/>
@@ -6005,13 +6007,13 @@
       <c r="B18" s="43"/>
       <c r="C18" s="287"/>
       <c r="D18" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18" s="119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="51"/>
@@ -6035,13 +6037,13 @@
       <c r="B19" s="58"/>
       <c r="C19" s="291"/>
       <c r="D19" s="63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F19" s="125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="51"/>
@@ -6071,13 +6073,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="280" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F20" s="126" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="51"/>
@@ -6101,13 +6103,13 @@
       <c r="B21" s="46"/>
       <c r="C21" s="290"/>
       <c r="D21" s="283" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="51"/>
@@ -6137,16 +6139,16 @@
         <v>34</v>
       </c>
       <c r="D22" s="280" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F22" s="118" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
@@ -6169,16 +6171,16 @@
       <c r="B23" s="43"/>
       <c r="C23" s="287"/>
       <c r="D23" s="280" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F23" s="118" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
@@ -6201,16 +6203,16 @@
       <c r="B24" s="43"/>
       <c r="C24" s="287"/>
       <c r="D24" s="61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F24" s="118" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
@@ -6234,13 +6236,13 @@
       <c r="C25" s="60"/>
       <c r="D25" s="64"/>
       <c r="E25" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="118" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>277</v>
-      </c>
-      <c r="F25" s="118" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>279</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -6264,13 +6266,13 @@
       <c r="C26" s="60"/>
       <c r="D26" s="65"/>
       <c r="E26" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>280</v>
-      </c>
-      <c r="F26" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>282</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
@@ -6294,13 +6296,13 @@
       <c r="C27" s="60"/>
       <c r="D27" s="64"/>
       <c r="E27" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F27" s="118" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
@@ -6323,22 +6325,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F28" s="128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
@@ -6361,16 +6363,16 @@
       <c r="B29" s="43"/>
       <c r="C29" s="60"/>
       <c r="D29" s="64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F29" s="118" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
@@ -6396,13 +6398,13 @@
         <v>44</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -6428,13 +6430,13 @@
         <v>40</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F31" s="70"/>
       <c r="G31" s="5"/>
@@ -6462,16 +6464,16 @@
         <v>40</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E32" s="246" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F32" s="270" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="51"/>
@@ -6496,10 +6498,10 @@
       <c r="C33" s="60"/>
       <c r="D33" s="61"/>
       <c r="E33" s="247" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F33" s="271" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="51"/>
@@ -6523,10 +6525,10 @@
       <c r="B34" s="58"/>
       <c r="C34" s="71"/>
       <c r="D34" s="72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="248" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" s="244"/>
       <c r="G34" s="9"/>
@@ -6551,19 +6553,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E35" s="249" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F35" s="245" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="51"/>
@@ -6587,13 +6589,13 @@
       <c r="B36" s="43"/>
       <c r="C36" s="60"/>
       <c r="D36" s="74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E36" s="250" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F36" s="117" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="51"/>
@@ -6617,13 +6619,13 @@
       <c r="B37" s="43"/>
       <c r="C37" s="60"/>
       <c r="D37" s="61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" s="251" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F37" s="117" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="51"/>
@@ -6647,13 +6649,13 @@
       <c r="B38" s="58"/>
       <c r="C38" s="62"/>
       <c r="D38" s="63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E38" s="252" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F38" s="129" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="51"/>
@@ -6680,16 +6682,16 @@
         <v>40</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D39" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="249" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>205</v>
-      </c>
-      <c r="E39" s="249" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>207</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="51"/>
@@ -6713,13 +6715,13 @@
       <c r="B40" s="43"/>
       <c r="C40" s="60"/>
       <c r="D40" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="51"/>
@@ -6744,10 +6746,10 @@
       <c r="C41" s="60"/>
       <c r="D41" s="64"/>
       <c r="E41" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="51"/>
@@ -6772,7 +6774,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="75"/>
       <c r="E42" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="9"/>
@@ -6800,16 +6802,16 @@
         <v>40</v>
       </c>
       <c r="C43" s="77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="51"/>
@@ -6833,14 +6835,14 @@
       <c r="B44" s="79"/>
       <c r="C44" s="80"/>
       <c r="D44" s="81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G44" s="131" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
@@ -6866,16 +6868,16 @@
         <v>40</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="51"/>
@@ -6899,13 +6901,13 @@
       <c r="B46" s="84"/>
       <c r="C46" s="60"/>
       <c r="D46" s="85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="51"/>
@@ -6929,19 +6931,19 @@
         <v>2</v>
       </c>
       <c r="B47" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>145</v>
-      </c>
       <c r="E47" s="88" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="51"/>
@@ -6965,10 +6967,10 @@
       <c r="B48" s="43"/>
       <c r="C48" s="89"/>
       <c r="D48" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" s="90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="7"/>
@@ -6993,10 +6995,10 @@
       <c r="B49" s="58"/>
       <c r="C49" s="91"/>
       <c r="D49" s="92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E49" s="93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="9"/>
@@ -7021,19 +7023,19 @@
         <v>2</v>
       </c>
       <c r="B50" s="140" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="143" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="135" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E50" s="94" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F50" s="262" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G50" s="257"/>
       <c r="H50" s="51"/>
@@ -7057,13 +7059,13 @@
       <c r="B51" s="141"/>
       <c r="C51" s="144"/>
       <c r="D51" s="253" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="263" t="s">
         <v>313</v>
-      </c>
-      <c r="E51" s="147" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="263" t="s">
-        <v>315</v>
       </c>
       <c r="G51" s="258"/>
       <c r="H51" s="132"/>
@@ -7087,10 +7089,10 @@
       <c r="B52" s="141"/>
       <c r="C52" s="144"/>
       <c r="D52" s="253" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E52" s="147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F52" s="264"/>
       <c r="G52" s="258"/>
@@ -7115,7 +7117,7 @@
       <c r="B53" s="138"/>
       <c r="C53" s="145"/>
       <c r="D53" s="254" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E53" s="148"/>
       <c r="F53" s="265"/>
@@ -7141,7 +7143,7 @@
       <c r="B54" s="142"/>
       <c r="C54" s="146"/>
       <c r="D54" s="255" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E54" s="150"/>
       <c r="F54" s="266"/>
@@ -7167,19 +7169,19 @@
         <v>2</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="256" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" s="149" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F55" s="263" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G55" s="258"/>
       <c r="H55" s="132"/>
@@ -7199,13 +7201,13 @@
       <c r="B56" s="141"/>
       <c r="C56" s="144"/>
       <c r="D56" s="256" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E56" s="149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F56" s="263" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G56" s="258"/>
       <c r="H56" s="132"/>
@@ -7225,13 +7227,13 @@
       <c r="B57" s="141"/>
       <c r="C57" s="144"/>
       <c r="D57" s="256" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E57" s="149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" s="263" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G57" s="261"/>
       <c r="H57" s="132"/>
@@ -7251,13 +7253,13 @@
       <c r="B58" s="142"/>
       <c r="C58" s="146"/>
       <c r="D58" s="255" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E58" s="150" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F58" s="267" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G58" s="260"/>
       <c r="H58" s="132"/>
@@ -7277,19 +7279,19 @@
         <v>2</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" s="144" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="256" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E59" s="149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F59" s="268" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G59" s="261"/>
       <c r="H59" s="132"/>
@@ -7309,13 +7311,13 @@
       <c r="B60" s="141"/>
       <c r="C60" s="144"/>
       <c r="D60" s="256" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E60" s="149" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F60" s="268" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G60" s="261"/>
       <c r="H60" s="132"/>
@@ -7335,13 +7337,13 @@
       <c r="B61" s="58"/>
       <c r="C61" s="91"/>
       <c r="D61" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F61" s="269" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="132"/>
@@ -7377,7 +7379,7 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="101" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B63" s="96"/>
       <c r="C63" s="102"/>
@@ -29060,11 +29062,11 @@
   </sheetPr>
   <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -29078,7 +29080,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="36" thickBot="1">
       <c r="A1" s="175" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="151" t="s">
         <v>5</v>
@@ -30112,14 +30114,14 @@
         <v>40</v>
       </c>
       <c r="C31" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="224" t="s">
         <v>65</v>
-      </c>
-      <c r="D31" s="224" t="s">
-        <v>66</v>
       </c>
       <c r="E31" s="196"/>
       <c r="F31" s="154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30131,11 +30133,11 @@
       </c>
       <c r="C32" s="208"/>
       <c r="D32" s="224" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="196"/>
       <c r="F32" s="154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30146,14 +30148,14 @@
         <v>40</v>
       </c>
       <c r="C33" s="211" t="s">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="D33" s="227" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="198"/>
       <c r="F33" s="157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -30187,11 +30189,11 @@
       </c>
       <c r="C34" s="208"/>
       <c r="D34" s="224" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="196"/>
       <c r="F34" s="154" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -30225,11 +30227,11 @@
       </c>
       <c r="C35" s="209"/>
       <c r="D35" s="225" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" s="197"/>
       <c r="F35" s="156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -30262,10 +30264,10 @@
         <v>40</v>
       </c>
       <c r="C36" s="208" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="224" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" s="196"/>
       <c r="F36" s="154" t="s">
@@ -30281,11 +30283,11 @@
       </c>
       <c r="C37" s="208"/>
       <c r="D37" s="224" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="196"/>
       <c r="F37" s="154" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G37" s="4"/>
       <c r="J37" s="4"/>
@@ -30299,7 +30301,7 @@
       </c>
       <c r="C38" s="208"/>
       <c r="D38" s="231" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" s="203"/>
       <c r="F38" s="160"/>
@@ -30312,14 +30314,14 @@
         <v>40</v>
       </c>
       <c r="C39" s="211" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="227" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" s="198"/>
       <c r="F39" s="157" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -30353,11 +30355,11 @@
       </c>
       <c r="C40" s="208"/>
       <c r="D40" s="224" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="196"/>
       <c r="F40" s="154" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -30391,11 +30393,11 @@
       </c>
       <c r="C41" s="209"/>
       <c r="D41" s="225" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" s="197"/>
       <c r="F41" s="156" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -30428,14 +30430,14 @@
         <v>40</v>
       </c>
       <c r="C42" s="208" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" s="224" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="196"/>
       <c r="F42" s="154" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30447,11 +30449,11 @@
       </c>
       <c r="C43" s="208"/>
       <c r="D43" s="224" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43" s="196"/>
       <c r="F43" s="154" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -30464,11 +30466,11 @@
       </c>
       <c r="C44" s="208"/>
       <c r="D44" s="224" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="196"/>
       <c r="F44" s="154" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30480,11 +30482,11 @@
       </c>
       <c r="C45" s="208"/>
       <c r="D45" s="224" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" s="196"/>
       <c r="F45" s="154" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30495,14 +30497,14 @@
         <v>40</v>
       </c>
       <c r="C46" s="211" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="227" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="198"/>
       <c r="F46" s="157" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -30536,11 +30538,11 @@
       </c>
       <c r="C47" s="208"/>
       <c r="D47" s="224" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="196"/>
       <c r="F47" s="154" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -30574,11 +30576,11 @@
       </c>
       <c r="C48" s="209"/>
       <c r="D48" s="225" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E48" s="197"/>
       <c r="F48" s="156" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -30611,14 +30613,14 @@
         <v>40</v>
       </c>
       <c r="C49" s="208" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" s="224" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="196"/>
       <c r="F49" s="154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30630,11 +30632,11 @@
       </c>
       <c r="C50" s="208"/>
       <c r="D50" s="224" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="196"/>
       <c r="F50" s="154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30645,14 +30647,14 @@
         <v>40</v>
       </c>
       <c r="C51" s="211" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" s="227" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" s="198"/>
       <c r="F51" s="157" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -30686,11 +30688,11 @@
       </c>
       <c r="C52" s="208"/>
       <c r="D52" s="224" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E52" s="196"/>
       <c r="F52" s="154" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -30724,11 +30726,11 @@
       </c>
       <c r="C53" s="209"/>
       <c r="D53" s="225" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="197"/>
       <c r="F53" s="156" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -30761,14 +30763,14 @@
         <v>40</v>
       </c>
       <c r="C54" s="208" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D54" s="224" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" s="196"/>
       <c r="F54" s="154" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30780,11 +30782,11 @@
       </c>
       <c r="C55" s="208"/>
       <c r="D55" s="224" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" s="196"/>
       <c r="F55" s="154" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30796,11 +30798,11 @@
       </c>
       <c r="C56" s="208"/>
       <c r="D56" s="224" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="196"/>
       <c r="F56" s="154" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30811,14 +30813,14 @@
         <v>40</v>
       </c>
       <c r="C57" s="211" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D57" s="227" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E57" s="198"/>
       <c r="F57" s="157" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -30852,11 +30854,11 @@
       </c>
       <c r="C58" s="209"/>
       <c r="D58" s="225" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E58" s="197"/>
       <c r="F58" s="156" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -30889,14 +30891,14 @@
         <v>40</v>
       </c>
       <c r="C59" s="208" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" s="224" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E59" s="196"/>
       <c r="F59" s="154" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30908,11 +30910,11 @@
       </c>
       <c r="C60" s="208"/>
       <c r="D60" s="224" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E60" s="196"/>
       <c r="F60" s="154" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30924,11 +30926,11 @@
       </c>
       <c r="C61" s="214"/>
       <c r="D61" s="232" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="204"/>
       <c r="F61" s="164" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="2" customFormat="1" ht="16.5">
@@ -30939,12 +30941,12 @@
         <v>40</v>
       </c>
       <c r="C62" s="215" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="233"/>
       <c r="E62" s="205"/>
       <c r="F62" s="166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -30977,12 +30979,12 @@
         <v>40</v>
       </c>
       <c r="C63" s="216" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="234"/>
       <c r="E63" s="206"/>
       <c r="F63" s="168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -31012,13 +31014,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="208" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D64" s="224" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E64" s="200"/>
       <c r="F64" s="160"/>
@@ -31050,11 +31052,11 @@
         <v>2</v>
       </c>
       <c r="B65" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="208"/>
       <c r="D65" s="224" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E65" s="200"/>
       <c r="F65" s="160"/>
@@ -31086,11 +31088,11 @@
         <v>2</v>
       </c>
       <c r="B66" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" s="208"/>
       <c r="D66" s="224" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E66" s="200"/>
       <c r="F66" s="160"/>
@@ -31122,11 +31124,11 @@
         <v>2</v>
       </c>
       <c r="B67" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C67" s="208"/>
       <c r="D67" s="224" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E67" s="200"/>
       <c r="F67" s="160"/>
@@ -31158,11 +31160,11 @@
         <v>2</v>
       </c>
       <c r="B68" s="155" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" s="209"/>
       <c r="D68" s="225" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E68" s="202"/>
       <c r="F68" s="162"/>
@@ -31194,13 +31196,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" s="208" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" s="224" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E69" s="200"/>
       <c r="F69" s="160"/>
@@ -31232,11 +31234,11 @@
         <v>2</v>
       </c>
       <c r="B70" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="208"/>
       <c r="D70" s="224" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E70" s="200"/>
       <c r="F70" s="160"/>
@@ -31268,11 +31270,11 @@
         <v>2</v>
       </c>
       <c r="B71" s="155" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C71" s="208"/>
       <c r="D71" s="224" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E71" s="200"/>
       <c r="F71" s="160"/>
@@ -31304,17 +31306,17 @@
         <v>2</v>
       </c>
       <c r="B72" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C72" s="211" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" s="227" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72" s="198"/>
       <c r="F72" s="157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -31344,15 +31346,15 @@
         <v>2</v>
       </c>
       <c r="B73" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" s="208"/>
       <c r="D73" s="224" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E73" s="196"/>
       <c r="F73" s="154" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -31382,15 +31384,15 @@
         <v>2</v>
       </c>
       <c r="B74" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="208"/>
       <c r="D74" s="224" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74" s="196"/>
       <c r="F74" s="154" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -31420,15 +31422,15 @@
         <v>2</v>
       </c>
       <c r="B75" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C75" s="208"/>
       <c r="D75" s="224" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E75" s="196"/>
       <c r="F75" s="154" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -31458,15 +31460,15 @@
         <v>2</v>
       </c>
       <c r="B76" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" s="208"/>
       <c r="D76" s="224" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E76" s="196"/>
       <c r="F76" s="154" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -31496,15 +31498,15 @@
         <v>2</v>
       </c>
       <c r="B77" s="155" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77" s="209"/>
       <c r="D77" s="225" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E77" s="197"/>
       <c r="F77" s="156" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -31534,17 +31536,17 @@
         <v>2</v>
       </c>
       <c r="B78" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="208" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D78" s="224" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E78" s="196"/>
       <c r="F78" s="154" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -31574,15 +31576,15 @@
         <v>2</v>
       </c>
       <c r="B79" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C79" s="208"/>
       <c r="D79" s="224" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E79" s="196"/>
       <c r="F79" s="154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -31612,15 +31614,15 @@
         <v>2</v>
       </c>
       <c r="B80" s="153" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C80" s="208"/>
       <c r="D80" s="224" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E80" s="196"/>
       <c r="F80" s="154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -31650,15 +31652,15 @@
         <v>2</v>
       </c>
       <c r="B81" s="158" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" s="213"/>
       <c r="D81" s="230" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" s="199"/>
       <c r="F81" s="159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -31709,7 +31711,7 @@
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" ht="14.25">
       <c r="A83" s="169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -31736,7 +31738,7 @@
     </row>
     <row r="84" spans="1:28" s="2" customFormat="1" ht="27.75">
       <c r="A84" s="170" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>

--- a/라키비움_ggma Business Reference Model.xlsx
+++ b/라키비움_ggma Business Reference Model.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="645" windowWidth="24015" windowHeight="10770" activeTab="1"/>
+    <workbookView xWindow="630" yWindow="645" windowWidth="24015" windowHeight="10770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017 1차" sheetId="1" r:id="rId1"/>
     <sheet name="2018 1차" sheetId="2" r:id="rId2"/>
+    <sheet name="2018 2차" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="328">
   <si>
     <t>(정책목표)
 본부 단위 업무기능</t>
@@ -29062,11 +29063,11 @@
   </sheetPr>
   <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -29101,9 +29102,7 @@
       <c r="B2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="194" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="194"/>
       <c r="D2" s="222" t="s">
         <v>8</v>
       </c>
@@ -31885,4 +31884,2835 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" customWidth="1"/>
+    <col min="5" max="6" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="36" thickBot="1">
+      <c r="A1" s="175" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="193"/>
+      <c r="F1" s="152"/>
+    </row>
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="20.25">
+      <c r="A2" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="194"/>
+      <c r="D2" s="222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="21" thickBot="1">
+      <c r="A3" s="177"/>
+      <c r="B3" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="218"/>
+      <c r="F3" s="190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="196"/>
+      <c r="F4" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A5" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="208"/>
+      <c r="D5" s="224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="196"/>
+      <c r="F5" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A6" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="208"/>
+      <c r="D6" s="224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="196"/>
+      <c r="F6" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A7" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="209"/>
+      <c r="D7" s="225" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="197"/>
+      <c r="F7" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A8" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="219"/>
+      <c r="F8" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A9" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="210"/>
+      <c r="D9" s="226" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="219"/>
+      <c r="F9" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A10" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="210"/>
+      <c r="D10" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="219"/>
+      <c r="F10" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A11" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="210"/>
+      <c r="D11" s="226" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="219"/>
+      <c r="F11" s="191" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A12" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="210"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A13" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="211" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="227" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="198"/>
+      <c r="F13" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A14" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="208"/>
+      <c r="D14" s="224" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="196"/>
+      <c r="F14" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A15" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="209"/>
+      <c r="D15" s="225" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="197"/>
+      <c r="F15" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A16" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="228" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="220"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A17" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="212"/>
+      <c r="D17" s="228" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="220"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A18" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="212"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A19" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="211" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="198"/>
+      <c r="F19" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A20" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="208"/>
+      <c r="D20" s="224" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="196"/>
+      <c r="F20" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="17.25" collapsed="1" thickBot="1">
+      <c r="A21" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="213"/>
+      <c r="D21" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="199"/>
+      <c r="F21" s="159" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="224" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="200"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A23" s="178"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="224" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="200"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A24" s="178"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="224" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="200"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A25" s="178"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="224" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="200"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A26" s="178"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="224" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="200"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A27" s="184"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="224" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="200"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A28" s="178"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="211" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="227" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="201"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A29" s="178"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="200"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+      <c r="A30" s="184"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="202"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A31" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="224" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="196"/>
+      <c r="F31" s="154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A32" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="208"/>
+      <c r="D32" s="224" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="196"/>
+      <c r="F32" s="154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A33" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="227" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="198"/>
+      <c r="F33" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A34" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="208"/>
+      <c r="D34" s="224" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="196"/>
+      <c r="F34" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A35" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="209"/>
+      <c r="D35" s="225" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="197"/>
+      <c r="F35" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A36" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="208" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="224" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="196"/>
+      <c r="F36" s="154" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A37" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="208"/>
+      <c r="D37" s="224" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="196"/>
+      <c r="F37" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A38" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="208"/>
+      <c r="D38" s="231" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="203"/>
+      <c r="F38" s="160"/>
+    </row>
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A39" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="211" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="227" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="198"/>
+      <c r="F39" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A40" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="208"/>
+      <c r="D40" s="224" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="196"/>
+      <c r="F40" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A41" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="209"/>
+      <c r="D41" s="225" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="197"/>
+      <c r="F41" s="156" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A42" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="208" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="224" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="196"/>
+      <c r="F42" s="154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A43" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="208"/>
+      <c r="D43" s="224" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="196"/>
+      <c r="F43" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A44" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="208"/>
+      <c r="D44" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="196"/>
+      <c r="F44" s="154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A45" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="208"/>
+      <c r="D45" s="224" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="196"/>
+      <c r="F45" s="154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A46" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="211" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="227" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="198"/>
+      <c r="F46" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A47" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="208"/>
+      <c r="D47" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="196"/>
+      <c r="F47" s="154" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A48" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="209"/>
+      <c r="D48" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="197"/>
+      <c r="F48" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A49" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="208" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="224" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="196"/>
+      <c r="F49" s="154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A50" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="208"/>
+      <c r="D50" s="224" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="196"/>
+      <c r="F50" s="154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A51" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="211" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="227" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="198"/>
+      <c r="F51" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A52" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="208"/>
+      <c r="D52" s="224" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="196"/>
+      <c r="F52" s="154" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A53" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="209"/>
+      <c r="D53" s="225" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="197"/>
+      <c r="F53" s="156" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+    </row>
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A54" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="208" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="224" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="196"/>
+      <c r="F54" s="154" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A55" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="208"/>
+      <c r="D55" s="224" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="196"/>
+      <c r="F55" s="154" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A56" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="208"/>
+      <c r="D56" s="224" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="196"/>
+      <c r="F56" s="154" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A57" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="211" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="227" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="198"/>
+      <c r="F57" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A58" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="209"/>
+      <c r="D58" s="225" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="197"/>
+      <c r="F58" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A59" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="208" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="224" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="196"/>
+      <c r="F59" s="154" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A60" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="208"/>
+      <c r="D60" s="224" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="196"/>
+      <c r="F60" s="154" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A61" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="163" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="214"/>
+      <c r="D61" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="204"/>
+      <c r="F61" s="164" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A62" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="215" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="233"/>
+      <c r="E62" s="205"/>
+      <c r="F62" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28" s="2" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A63" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="234"/>
+      <c r="E63" s="206"/>
+      <c r="F63" s="168" t="s">
+        <v>320</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+    </row>
+    <row r="64" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A64" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="208" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="224" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="200"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A65" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="208"/>
+      <c r="D65" s="224" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="200"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+    </row>
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A66" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="208"/>
+      <c r="D66" s="224" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="200"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A67" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="208"/>
+      <c r="D67" s="224" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="200"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A68" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="209"/>
+      <c r="D68" s="225" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="202"/>
+      <c r="F68" s="162"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A69" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="208" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="224" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="200"/>
+      <c r="F69" s="160"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+    </row>
+    <row r="70" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A70" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="208"/>
+      <c r="D70" s="224" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="200"/>
+      <c r="F70" s="160"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+    </row>
+    <row r="71" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A71" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="208"/>
+      <c r="D71" s="224" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="200"/>
+      <c r="F71" s="160"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+    </row>
+    <row r="72" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A72" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="227" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="198"/>
+      <c r="F72" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+    </row>
+    <row r="73" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A73" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="208"/>
+      <c r="D73" s="224" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="196"/>
+      <c r="F73" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+    </row>
+    <row r="74" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A74" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="208"/>
+      <c r="D74" s="224" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="196"/>
+      <c r="F74" s="154" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+    </row>
+    <row r="75" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A75" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="208"/>
+      <c r="D75" s="224" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="196"/>
+      <c r="F75" s="154" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+    </row>
+    <row r="76" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A76" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="208"/>
+      <c r="D76" s="224" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="196"/>
+      <c r="F76" s="154" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+    </row>
+    <row r="77" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A77" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="209"/>
+      <c r="D77" s="225" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="197"/>
+      <c r="F77" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+    </row>
+    <row r="78" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A78" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="224" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="196"/>
+      <c r="F78" s="154" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+    </row>
+    <row r="79" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A79" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="208"/>
+      <c r="D79" s="224" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="196"/>
+      <c r="F79" s="154" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+    </row>
+    <row r="80" spans="1:28" s="2" customFormat="1" ht="16.5">
+      <c r="A80" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="208"/>
+      <c r="D80" s="224" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" s="196"/>
+      <c r="F80" s="154" t="s">
+        <v>180</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+    </row>
+    <row r="81" spans="1:28" s="2" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A81" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="213"/>
+      <c r="D81" s="230" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="199"/>
+      <c r="F81" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+    </row>
+    <row r="82" spans="1:28" s="2" customFormat="1" ht="12.75">
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="1:28" s="2" customFormat="1" ht="14.25">
+      <c r="A83" s="169" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+    </row>
+    <row r="84" spans="1:28" s="2" customFormat="1" ht="27.75">
+      <c r="A84" s="170" t="s">
+        <v>306</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28" s="2" customFormat="1" ht="12.75">
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+    </row>
+    <row r="86" spans="1:28" s="2" customFormat="1" ht="12.75">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+    </row>
+    <row r="87" spans="1:28" s="2" customFormat="1" ht="12.75">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+    </row>
+    <row r="88" spans="1:28" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:28" s="2" customFormat="1" ht="12.75">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:28" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="92" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D92" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B64:B81 B28:B61 B4:B26">
+      <formula1>"도민참여,아카이빙,브랜딩"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
 </file>